--- a/TestData/BappData.xlsx
+++ b/TestData/BappData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-3720" windowWidth="38400" windowHeight="21140" tabRatio="881" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-31360" yWindow="-240" windowWidth="24960" windowHeight="15040" tabRatio="881" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="welcome" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="935">
   <si>
     <t>Page</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,41 +137,10 @@
     <t>passwordText</t>
   </si>
   <si>
-    <t>forgetpawLink</t>
-  </si>
-  <si>
     <t>welcomePage</t>
   </si>
   <si>
     <t>timeoutButton</t>
-  </si>
-  <si>
-    <t>fetchpasswordPage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phoneText</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vercodeButton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vercodeText</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>passwordText</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>confirmButton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>backButton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>affiliatePage</t>
@@ -1317,10 +1286,6 @@
     <t>//div[@id='lightbrokerdetail']/a/img</t>
   </si>
   <si>
-    <t>forgetpassword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>trainstatus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2295,38 +2260,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>qaz123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//UIAApplication[1]/UIAWindow[1]/UIANavigationBar[@name = '找回密码']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//UIAApplication[1]/UIAWindow[1]/UIATextField[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//UIAApplication[1]/UIAWindow[1]/UIAButton[@name = '发送验证码']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//UIAApplication[1]/UIAWindow[1]/UIATextField[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//UIAApplication[1]/UIAWindow[1]/UIASecureTextField</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//UIAApplication[1]/UIAWindow[1]/UIAButton[@name = '确认']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//UIAApplication[1]/UIAWindow[1]/UIANavigationBar[@name = '找回密码']/UIAButton[@name = '返回']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>//UIAApplication[1]/UIAWindow[1]/UIANavigationBar[@name ='经纪人挂靠']</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3613,65 +3546,117 @@
     <t>//android.widget.EditText[@resource-id = 'com.jzsec.kingbroker:id/edit_text_login_screen_user_name']</t>
   </si>
   <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text = '客服电话：400-654321-8']</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>Element</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>eyecloseButton</t>
+  </si>
+  <si>
+    <t>eyeopenButton</t>
+  </si>
+  <si>
+    <t>registerButton</t>
+  </si>
+  <si>
+    <t>servicephoneText</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@resource-id = 'com.jzsec.kingbroker:id/find_password_tv']</t>
+  </si>
+  <si>
+    <t>//android.widget.Button[@resource-id = 'com.jzsec.kingbroker:id/button_login_screen_submit']</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@resource-id = 'com.jzsec.kingbroker:id/dialog_msg']</t>
+  </si>
+  <si>
+    <t>//android.widget.EditText[@resource-id = 'com.jzsec.kingbroker:id/et_password1'][@password = 'true']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.EditText[@resource-id = 'com.jzsec.kingbroker:id/edit_text_login_screen_password'][@password = 'true']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.EditText[@resource-id = 'com.jzsec.kingbroker:id/edit_text_login_screen_password'][@password = 'false']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xpath</t>
+  </si>
+  <si>
+    <t>forgetpassword</t>
+  </si>
+  <si>
+    <t>fetchpasswordPage</t>
+  </si>
+  <si>
+    <t>findButton</t>
+  </si>
+  <si>
+    <t>forgetpswLink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.view.View[@resource-id = 'com.jzsec.kingbroker:id/wiperSwitch_show_passwd']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>//android.widget.TextView[@resource-id = 'com.jzsec.kingbroker:id/right_button'][@text = '注册']</t>
-  </si>
-  <si>
-    <t>2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>//android.widget.TextView[@text = '客服电话：400-654321-8']</t>
-  </si>
-  <si>
-    <t>Page</t>
-  </si>
-  <si>
-    <t>Element</t>
-  </si>
-  <si>
-    <t>Index</t>
-  </si>
-  <si>
-    <t>login</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>eyecloseButton</t>
-  </si>
-  <si>
-    <t>eyeopenButton</t>
-  </si>
-  <si>
-    <t>registerButton</t>
-  </si>
-  <si>
-    <t>servicephoneText</t>
-  </si>
-  <si>
-    <t>//android.view.View[@resource-id = 'com.jzsec.kingbroker:id/wiperSwitch_show_passwd']</t>
-  </si>
-  <si>
-    <t>//android.widget.TextView[@resource-id = 'com.jzsec.kingbroker:id/find_password_tv']</t>
-  </si>
-  <si>
-    <t>//android.widget.Button[@resource-id = 'com.jzsec.kingbroker:id/button_login_screen_submit']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>//android.widget.TextView[@resource-id = 'com.jzsec.kingbroker:id/dialog_msg']</t>
-  </si>
-  <si>
-    <t>//android.widget.EditText[@resource-id = 'com.jzsec.kingbroker:id/et_password1'][@password = 'true']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.EditText[@resource-id = 'com.jzsec.kingbroker:id/edit_text_login_screen_password'][@password = 'true']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.EditText[@resource-id = 'com.jzsec.kingbroker:id/edit_text_login_screen_password'][@password = 'false']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.Button[@resource-id = 'com.jzsec.kingbroker:id/dialog_btn_ok']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@resource-id = 'com.jzsec.kingbroker:id/title'][@text = '找回密码']</t>
+  </si>
+  <si>
+    <t>//android.widget.EditText[@resource-id = 'com.jzsec.kingbroker:id/et_reset_login_passwd_your_phonenumber']</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@resource-id = 'com.jzsec.kingbroker:id/tv_reset_login_passwd_send_verify_code']</t>
+  </si>
+  <si>
+    <t>//android.widget.EditText[@resource-id = 'com.jzsec.kingbroker:id/et_reset_login_passwd_verify_code']</t>
+  </si>
+  <si>
+    <t>//android.widget.EditText[@resource-id = 'com.jzsec.kingbroker:id/et_reset_login_passwd_new_password'][@password = 'true']</t>
+  </si>
+  <si>
+    <t>//android.widget.EditText[@resource-id = 'com.jzsec.kingbroker:id/et_reset_login_passwd_new_password'][@password = 'false']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.Button[@resource-id = 'com.jzsec.kingbroker:id/btn_reset_login_passwd_confirm']</t>
   </si>
 </sst>
 </file>
@@ -3779,8 +3764,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1863">
+  <cellStyleXfs count="1869">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5694,7 +5685,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1863">
+  <cellStyles count="1869">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -6626,6 +6617,9 @@
     <cellStyle name="超链接" xfId="1857" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1859" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1861" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1863" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1865" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1867" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -7557,6 +7551,9 @@
     <cellStyle name="访问过的超链接" xfId="1858" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1860" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1862" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1864" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1866" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1868" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7930,7 +7927,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>908</v>
+        <v>891</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -7945,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>909</v>
+        <v>892</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -7960,7 +7957,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>907</v>
+        <v>890</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -7975,7 +7972,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>906</v>
+        <v>889</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -7984,13 +7981,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>880</v>
+        <v>863</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -7998,7 +7995,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -8052,173 +8049,173 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="E7" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -8261,7 +8258,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>900</v>
+        <v>883</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>3</v>
@@ -8269,10 +8266,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -8281,10 +8278,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -8293,10 +8290,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="B4" t="s">
-        <v>710</v>
+        <v>693</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -8304,10 +8301,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>643</v>
+        <v>626</v>
       </c>
       <c r="B5" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -8315,10 +8312,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>643</v>
+        <v>626</v>
       </c>
       <c r="B6" t="s">
-        <v>712</v>
+        <v>695</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -8326,10 +8323,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>643</v>
+        <v>626</v>
       </c>
       <c r="B7" t="s">
-        <v>645</v>
+        <v>628</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -8337,10 +8334,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>643</v>
+        <v>626</v>
       </c>
       <c r="B8" t="s">
-        <v>646</v>
+        <v>629</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -8348,10 +8345,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>643</v>
+        <v>626</v>
       </c>
       <c r="B9" t="s">
-        <v>647</v>
+        <v>630</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -8359,10 +8356,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>643</v>
+        <v>626</v>
       </c>
       <c r="B10" t="s">
-        <v>648</v>
+        <v>631</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -8370,10 +8367,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>643</v>
+        <v>626</v>
       </c>
       <c r="B11" t="s">
-        <v>649</v>
+        <v>632</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -8381,24 +8378,24 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>643</v>
+        <v>626</v>
       </c>
       <c r="B12" t="s">
-        <v>650</v>
+        <v>633</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>910</v>
+        <v>893</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>643</v>
+        <v>626</v>
       </c>
       <c r="B13" t="s">
-        <v>651</v>
+        <v>634</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -8406,10 +8403,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>643</v>
+        <v>626</v>
       </c>
       <c r="B14" t="s">
-        <v>680</v>
+        <v>663</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -8417,10 +8414,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B15" t="s">
-        <v>768</v>
+        <v>751</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -8428,10 +8425,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B16" t="s">
-        <v>769</v>
+        <v>752</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -8439,10 +8436,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B17" t="s">
-        <v>770</v>
+        <v>753</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -8450,10 +8447,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B18" t="s">
-        <v>771</v>
+        <v>754</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -8461,10 +8458,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="B20" t="s">
-        <v>713</v>
+        <v>696</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -8472,34 +8469,34 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="B21" t="s">
-        <v>652</v>
+        <v>635</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="B22" t="s">
-        <v>653</v>
+        <v>636</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="B23" t="s">
-        <v>654</v>
+        <v>637</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="B24" t="s">
-        <v>655</v>
+        <v>638</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -8508,10 +8505,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>714</v>
+        <v>697</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -8520,10 +8517,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>715</v>
+        <v>698</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -8532,10 +8529,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>716</v>
+        <v>699</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -8544,10 +8541,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>717</v>
+        <v>700</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -8555,10 +8552,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>718</v>
+        <v>701</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -8566,10 +8563,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>719</v>
+        <v>702</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -8577,10 +8574,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>720</v>
+        <v>703</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -8588,10 +8585,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>721</v>
+        <v>704</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -8599,10 +8596,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>727</v>
+        <v>710</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -8610,10 +8607,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>722</v>
+        <v>705</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -8621,10 +8618,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>723</v>
+        <v>706</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -8632,10 +8629,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>724</v>
+        <v>707</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -8644,10 +8641,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>725</v>
+        <v>708</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -8656,10 +8653,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>726</v>
+        <v>709</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -8668,10 +8665,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>772</v>
+        <v>755</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -8680,10 +8677,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -8692,10 +8689,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>729</v>
+        <v>712</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -8704,10 +8701,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>730</v>
+        <v>713</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -8716,10 +8713,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>747</v>
+        <v>730</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -8728,10 +8725,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>748</v>
+        <v>731</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -8740,10 +8737,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>731</v>
+        <v>714</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -8752,10 +8749,10 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>732</v>
+        <v>715</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -8764,10 +8761,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -8776,10 +8773,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>757</v>
+        <v>740</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>756</v>
+        <v>739</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -8788,10 +8785,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>750</v>
+        <v>733</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -8800,10 +8797,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>751</v>
+        <v>734</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -8812,10 +8809,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>752</v>
+        <v>735</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -8824,10 +8821,10 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>733</v>
+        <v>716</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -8836,10 +8833,10 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>734</v>
+        <v>717</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -8848,10 +8845,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>735</v>
+        <v>718</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -8860,10 +8857,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>736</v>
+        <v>719</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -8872,10 +8869,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>737</v>
+        <v>720</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -8884,10 +8881,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>738</v>
+        <v>721</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -8896,10 +8893,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>739</v>
+        <v>722</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -8908,10 +8905,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>740</v>
+        <v>723</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -8920,10 +8917,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>741</v>
+        <v>724</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -8932,10 +8929,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>753</v>
+        <v>736</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -8944,10 +8941,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>755</v>
+        <v>738</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -8955,10 +8952,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>754</v>
+        <v>737</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -8967,10 +8964,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>742</v>
+        <v>725</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -8979,10 +8976,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>743</v>
+        <v>726</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -8991,10 +8988,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>744</v>
+        <v>727</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -9003,10 +9000,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>745</v>
+        <v>728</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -9015,10 +9012,10 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>746</v>
+        <v>729</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -9039,26 +9036,26 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>658</v>
+        <v>641</v>
       </c>
       <c r="B73" t="s">
-        <v>644</v>
+        <v>627</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>658</v>
+        <v>641</v>
       </c>
       <c r="B74" t="s">
-        <v>657</v>
+        <v>640</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>758</v>
+        <v>741</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>759</v>
+        <v>742</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -9066,10 +9063,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>758</v>
+        <v>741</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>760</v>
+        <v>743</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -9077,10 +9074,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>758</v>
+        <v>741</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>761</v>
+        <v>744</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -9088,10 +9085,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>758</v>
+        <v>741</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>762</v>
+        <v>745</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -9099,10 +9096,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>758</v>
+        <v>741</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>763</v>
+        <v>746</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -9110,10 +9107,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>758</v>
+        <v>741</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>764</v>
+        <v>747</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -9121,10 +9118,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>758</v>
+        <v>741</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>765</v>
+        <v>748</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -9132,10 +9129,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>758</v>
+        <v>741</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>766</v>
+        <v>749</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -9143,10 +9140,10 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>758</v>
+        <v>741</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>767</v>
+        <v>750</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -9154,10 +9151,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>758</v>
+        <v>741</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>773</v>
+        <v>756</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -9165,10 +9162,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>758</v>
+        <v>741</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>774</v>
+        <v>757</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -9176,10 +9173,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
+        <v>741</v>
+      </c>
+      <c r="B87" s="12" t="s">
         <v>758</v>
-      </c>
-      <c r="B87" s="12" t="s">
-        <v>775</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -9187,10 +9184,10 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>758</v>
+        <v>741</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>776</v>
+        <v>759</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -9198,10 +9195,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="B94" t="s">
-        <v>695</v>
+        <v>678</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -9209,10 +9206,10 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="B95" t="s">
-        <v>659</v>
+        <v>642</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -9220,10 +9217,10 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="B96" t="s">
-        <v>660</v>
+        <v>643</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -9232,10 +9229,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="B97" t="s">
-        <v>661</v>
+        <v>644</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -9244,10 +9241,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -9256,10 +9253,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -9268,10 +9265,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -9280,10 +9277,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -9292,10 +9289,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -9304,10 +9301,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -9316,10 +9313,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>696</v>
+        <v>679</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>697</v>
+        <v>680</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -9328,10 +9325,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>696</v>
+        <v>679</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -9340,10 +9337,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -9352,10 +9349,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>700</v>
+        <v>683</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -9364,10 +9361,10 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>662</v>
+        <v>645</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -9375,24 +9372,24 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
       <c r="E109" t="s">
-        <v>703</v>
+        <v>686</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>701</v>
+        <v>684</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>702</v>
+        <v>685</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -9400,10 +9397,10 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>665</v>
+        <v>648</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -9411,10 +9408,10 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>664</v>
+        <v>647</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -9422,10 +9419,10 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>666</v>
+        <v>649</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -9433,10 +9430,10 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>667</v>
+        <v>650</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -9444,10 +9441,10 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>668</v>
+        <v>651</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -9455,10 +9452,10 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>669</v>
+        <v>652</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -9466,10 +9463,10 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>670</v>
+        <v>653</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -9477,10 +9474,10 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>701</v>
+        <v>684</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>704</v>
+        <v>687</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -9488,10 +9485,10 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>671</v>
+        <v>654</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -9499,10 +9496,10 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>672</v>
+        <v>655</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -9510,24 +9507,24 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>673</v>
+        <v>656</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
       <c r="E121" t="s">
-        <v>707</v>
+        <v>690</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -9535,10 +9532,10 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>675</v>
+        <v>658</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -9546,10 +9543,10 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>701</v>
+        <v>684</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -9557,10 +9554,10 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>676</v>
+        <v>659</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -9568,10 +9565,10 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>677</v>
+        <v>660</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -9579,24 +9576,24 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>678</v>
+        <v>661</v>
       </c>
       <c r="C127">
         <v>1</v>
       </c>
       <c r="E127" t="s">
-        <v>708</v>
+        <v>691</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>701</v>
+        <v>684</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>706</v>
+        <v>689</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -9604,10 +9601,10 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>679</v>
+        <v>662</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -9615,10 +9612,10 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>831</v>
+        <v>814</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -9626,10 +9623,10 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>847</v>
+        <v>830</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>848</v>
+        <v>831</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -9637,10 +9634,10 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>693</v>
+        <v>676</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>694</v>
+        <v>677</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -9648,10 +9645,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>693</v>
+        <v>676</v>
       </c>
       <c r="B134" s="12" t="s">
-        <v>709</v>
+        <v>692</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -9659,10 +9656,10 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>693</v>
+        <v>676</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -9670,10 +9667,10 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>693</v>
+        <v>676</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -9681,10 +9678,10 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>693</v>
+        <v>676</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -9692,10 +9689,10 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>693</v>
+        <v>676</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -9703,10 +9700,10 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>693</v>
+        <v>676</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -9714,10 +9711,10 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>693</v>
+        <v>676</v>
       </c>
       <c r="B140" s="12" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -9726,10 +9723,10 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>693</v>
+        <v>676</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>688</v>
+        <v>671</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -9737,10 +9734,10 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>693</v>
+        <v>676</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>689</v>
+        <v>672</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -9748,10 +9745,10 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>693</v>
+        <v>676</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>690</v>
+        <v>673</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -9760,10 +9757,10 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>693</v>
+        <v>676</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>691</v>
+        <v>674</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -9771,10 +9768,10 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>693</v>
+        <v>676</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -9782,10 +9779,10 @@
     </row>
     <row r="147" spans="1:3" ht="16" customHeight="1">
       <c r="A147" t="s">
-        <v>785</v>
+        <v>768</v>
       </c>
       <c r="B147" t="s">
-        <v>786</v>
+        <v>769</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -9793,10 +9790,10 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>785</v>
+        <v>768</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>787</v>
+        <v>770</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -9804,10 +9801,10 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>785</v>
+        <v>768</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>787</v>
+        <v>770</v>
       </c>
       <c r="C149">
         <v>2</v>
@@ -9815,10 +9812,10 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>785</v>
+        <v>768</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>788</v>
+        <v>771</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -9826,10 +9823,10 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>785</v>
+        <v>768</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>789</v>
+        <v>772</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -9837,10 +9834,10 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>785</v>
+        <v>768</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>790</v>
+        <v>773</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -9848,10 +9845,10 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>785</v>
+        <v>768</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>791</v>
+        <v>774</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -9859,10 +9856,10 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>785</v>
+        <v>768</v>
       </c>
       <c r="B154" s="12" t="s">
-        <v>792</v>
+        <v>775</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -9870,10 +9867,10 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>832</v>
+        <v>815</v>
       </c>
       <c r="B156" s="12" t="s">
-        <v>833</v>
+        <v>816</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -9881,10 +9878,10 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>832</v>
+        <v>815</v>
       </c>
       <c r="B157" s="12" t="s">
-        <v>834</v>
+        <v>817</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -9892,10 +9889,10 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>832</v>
+        <v>815</v>
       </c>
       <c r="B158" s="12" t="s">
-        <v>835</v>
+        <v>818</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -9903,10 +9900,10 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>832</v>
+        <v>815</v>
       </c>
       <c r="B159" s="12" t="s">
-        <v>836</v>
+        <v>819</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -9914,10 +9911,10 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>832</v>
+        <v>815</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>837</v>
+        <v>820</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -9925,72 +9922,72 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>866</v>
+        <v>849</v>
       </c>
       <c r="B163" t="s">
-        <v>865</v>
+        <v>848</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163" t="s">
-        <v>911</v>
+        <v>894</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>866</v>
+        <v>849</v>
       </c>
       <c r="B164" t="s">
-        <v>867</v>
+        <v>850</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164" t="s">
-        <v>915</v>
+        <v>898</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>866</v>
+        <v>849</v>
       </c>
       <c r="B165" t="s">
-        <v>868</v>
+        <v>851</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165" t="s">
-        <v>912</v>
+        <v>895</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>866</v>
+        <v>849</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>869</v>
+        <v>852</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166" t="s">
-        <v>913</v>
+        <v>896</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>866</v>
+        <v>849</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>870</v>
+        <v>853</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167" t="s">
-        <v>914</v>
+        <v>897</v>
       </c>
     </row>
   </sheetData>
@@ -10039,52 +10036,52 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>903</v>
+        <v>886</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>904</v>
+        <v>887</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>905</v>
+        <v>888</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -10093,10 +10090,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -10106,7 +10103,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>20</v>
@@ -10118,10 +10115,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -10130,10 +10127,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -10142,10 +10139,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -10154,10 +10151,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>838</v>
+        <v>821</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>839</v>
+        <v>822</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -10166,10 +10163,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>840</v>
+        <v>823</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>841</v>
+        <v>824</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -10177,10 +10174,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>840</v>
+        <v>823</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>842</v>
+        <v>825</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -10188,10 +10185,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>840</v>
+        <v>823</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>843</v>
+        <v>826</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -10199,10 +10196,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>840</v>
+        <v>823</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>844</v>
+        <v>827</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -10210,10 +10207,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>845</v>
+        <v>828</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>846</v>
+        <v>829</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -10267,24 +10264,24 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>901</v>
+        <v>884</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -10293,10 +10290,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -10305,16 +10302,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>902</v>
+        <v>885</v>
       </c>
     </row>
   </sheetData>
@@ -10363,7 +10360,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>26</v>
@@ -10372,15 +10369,15 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>27</v>
@@ -10389,15 +10386,15 @@
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E3" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>23</v>
@@ -10406,7 +10403,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -10455,311 +10452,311 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -10806,10 +10803,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="B2" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -10820,38 +10817,38 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="B3" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="B4" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="B5" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -10908,94 +10905,94 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B2" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>636</v>
+        <v>619</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -11004,10 +11001,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -11016,481 +11013,481 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>613</v>
+        <v>596</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>615</v>
+        <v>598</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>616</v>
+        <v>599</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>623</v>
+        <v>606</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>624</v>
+        <v>607</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>625</v>
+        <v>608</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>623</v>
+        <v>606</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>626</v>
+        <v>609</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>627</v>
+        <v>610</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>623</v>
+        <v>606</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>628</v>
+        <v>611</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>632</v>
+        <v>615</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>623</v>
+        <v>606</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>629</v>
+        <v>612</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>633</v>
+        <v>616</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>623</v>
+        <v>606</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>630</v>
+        <v>613</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>634</v>
+        <v>617</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>623</v>
+        <v>606</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>631</v>
+        <v>614</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>635</v>
+        <v>618</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>623</v>
+        <v>606</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>637</v>
+        <v>620</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>618</v>
+        <v>601</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="E31" t="s">
-        <v>612</v>
+        <v>595</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
+        <v>479</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>497</v>
-      </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="5" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="5" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>610</v>
+        <v>593</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="5" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="5" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="5" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="E43">
         <v>180</v>
@@ -11498,103 +11495,103 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="5" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="C44">
         <v>2</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="E44" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="5" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="5" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="5" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>606</v>
+        <v>589</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="5" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>607</v>
+        <v>590</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>609</v>
+        <v>592</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="E50">
         <v>13300000002</v>
@@ -11602,16 +11599,16 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C51">
         <v>2</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="E51">
         <v>13300000003</v>
@@ -11619,16 +11616,16 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C52">
         <v>3</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="E52">
         <v>13300000004</v>
@@ -11636,221 +11633,221 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="E53" t="s">
-        <v>641</v>
+        <v>624</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="C54">
         <v>2</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="E54" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="C55">
         <v>3</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="E55" t="s">
-        <v>642</v>
+        <v>625</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
+        <v>436</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>454</v>
-      </c>
       <c r="C66">
         <v>1</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="5" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -11858,83 +11855,83 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="5" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="C68">
         <v>2</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="E68" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="5" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>614</v>
+        <v>597</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="5" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>619</v>
+        <v>602</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="5" t="s">
-        <v>617</v>
+        <v>600</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>620</v>
+        <v>603</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>618</v>
+        <v>601</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="5" t="s">
-        <v>617</v>
+        <v>600</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>621</v>
+        <v>604</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>622</v>
+        <v>605</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="5" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -11943,10 +11940,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="5" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -11955,10 +11952,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="5" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -11967,10 +11964,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="5" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -11979,10 +11976,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="5" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -11991,170 +11988,170 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="5" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="5" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="5" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="5" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="5" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="5" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="5" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>611</v>
+        <v>594</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="5" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="5" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="5" t="s">
-        <v>638</v>
+        <v>621</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>639</v>
+        <v>622</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>640</v>
+        <v>623</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="5" t="s">
-        <v>638</v>
+        <v>621</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>778</v>
+        <v>761</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>849</v>
+        <v>832</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="5" t="s">
-        <v>779</v>
+        <v>762</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>780</v>
+        <v>763</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>781</v>
+        <v>764</v>
       </c>
       <c r="E89">
         <v>20.2</v>
@@ -12162,66 +12159,66 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="5" t="s">
-        <v>782</v>
+        <v>765</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>783</v>
+        <v>766</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>784</v>
+        <v>767</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="5" t="s">
-        <v>782</v>
+        <v>765</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>851</v>
+        <v>834</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>852</v>
+        <v>835</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="5" t="s">
-        <v>779</v>
+        <v>762</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>850</v>
+        <v>833</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>777</v>
+        <v>760</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="11" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="C93">
         <v>1</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="11" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -12230,10 +12227,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="11" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -12242,47 +12239,47 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="11" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="11" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="E97" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="11" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="E98">
         <v>15310367543</v>
@@ -12290,16 +12287,16 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="11" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C99">
         <v>2</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="E99">
         <v>15310367542</v>
@@ -12307,63 +12304,63 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="11" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="11" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="11" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="11" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="11" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="B104" s="12" t="s">
         <v>16</v>
@@ -12372,63 +12369,63 @@
         <v>1</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="11" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="11" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="11" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
       <c r="D107" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="11" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="C108">
         <v>1</v>
       </c>
       <c r="D108" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
     </row>
   </sheetData>
@@ -12484,7 +12481,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>884</v>
+        <v>867</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -12498,7 +12495,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>882</v>
+        <v>865</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -12512,7 +12509,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>883</v>
+        <v>866</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -12526,7 +12523,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>885</v>
+        <v>868</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -12540,7 +12537,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>886</v>
+        <v>869</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -12554,7 +12551,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>887</v>
+        <v>870</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -12562,13 +12559,13 @@
         <v>14</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>856</v>
+        <v>839</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>889</v>
+        <v>872</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -12576,13 +12573,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>857</v>
+        <v>840</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>859</v>
+        <v>842</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>934</v>
+        <v>915</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -12590,13 +12587,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>858</v>
+        <v>841</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>888</v>
+        <v>871</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -12610,7 +12607,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>890</v>
+        <v>873</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -12624,7 +12621,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>891</v>
+        <v>874</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -12635,80 +12632,80 @@
         <v>22</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>919</v>
+        <v>901</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>891</v>
+        <v>874</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="13" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="C14" s="13">
         <v>1</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>892</v>
+        <v>875</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="13" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="C15" s="13">
         <v>1</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>893</v>
+        <v>876</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="13" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="C16" s="13">
         <v>1</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>893</v>
+        <v>876</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="13" t="s">
-        <v>853</v>
+        <v>836</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>854</v>
+        <v>837</v>
       </c>
       <c r="C17" s="13">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>881</v>
+        <v>864</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="13" t="s">
-        <v>853</v>
+        <v>836</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>855</v>
+        <v>838</v>
       </c>
       <c r="C18" s="13">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>879</v>
+        <v>862</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -12716,97 +12713,97 @@
         <v>6</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>860</v>
+        <v>843</v>
       </c>
       <c r="C19" s="13">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>894</v>
+        <v>877</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="13" t="s">
-        <v>861</v>
+        <v>844</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>862</v>
+        <v>845</v>
       </c>
       <c r="C20" s="13">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>895</v>
+        <v>878</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="13" t="s">
-        <v>863</v>
+        <v>846</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>864</v>
+        <v>847</v>
       </c>
       <c r="C21" s="13">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>920</v>
+        <v>902</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="13" t="s">
-        <v>871</v>
+        <v>854</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>876</v>
+        <v>859</v>
       </c>
       <c r="C22" s="13">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>896</v>
+        <v>879</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="13" t="s">
-        <v>872</v>
+        <v>855</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>873</v>
+        <v>856</v>
       </c>
       <c r="C23" s="13">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>898</v>
+        <v>881</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="13" t="s">
-        <v>874</v>
+        <v>857</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>875</v>
+        <v>858</v>
       </c>
       <c r="C24" s="13">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>899</v>
+        <v>882</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="13" t="s">
-        <v>877</v>
+        <v>860</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>878</v>
+        <v>861</v>
       </c>
       <c r="C25" s="13">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>897</v>
+        <v>880</v>
       </c>
     </row>
   </sheetData>
@@ -12823,10 +12820,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12841,13 +12838,13 @@
   <sheetData>
     <row r="1" spans="1:5" ht="13" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>921</v>
+        <v>903</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>922</v>
+        <v>904</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>923</v>
+        <v>905</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>4</v>
@@ -12858,178 +12855,181 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
-        <v>924</v>
+        <v>906</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>925</v>
+        <v>907</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>916</v>
+        <v>899</v>
       </c>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="6" t="s">
-        <v>924</v>
+        <v>906</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>925</v>
+        <v>907</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>917</v>
+        <v>900</v>
       </c>
       <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
-        <v>924</v>
+        <v>906</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>857</v>
+        <v>840</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>925</v>
+        <v>907</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>935</v>
+        <v>916</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" ht="16" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>924</v>
+        <v>906</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>858</v>
+        <v>841</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>925</v>
+        <v>907</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>936</v>
+        <v>917</v>
       </c>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="6" t="s">
-        <v>924</v>
+        <v>906</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>28</v>
+        <v>922</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>925</v>
+        <v>907</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>931</v>
+        <v>912</v>
       </c>
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
-        <v>924</v>
+        <v>906</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>925</v>
+        <v>907</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>932</v>
+        <v>913</v>
       </c>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="6" t="s">
-        <v>924</v>
+        <v>906</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>926</v>
+        <v>908</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>925</v>
+        <v>907</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="6" t="s">
-        <v>924</v>
+        <v>906</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>927</v>
+        <v>909</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>925</v>
+        <v>907</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="6" t="s">
+        <v>906</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>910</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>907</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>924</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>928</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>925</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
-        <v>924</v>
+        <v>906</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>929</v>
+        <v>911</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>907</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>925</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
-        <v>924</v>
+        <v>906</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>876</v>
+        <v>859</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>925</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>933</v>
+        <v>907</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
-        <v>924</v>
+        <v>906</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>925</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>897</v>
-      </c>
+        <v>907</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="D14" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -13045,32 +13045,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.83203125" customWidth="1"/>
     <col min="2" max="2" width="31.5" customWidth="1"/>
-    <col min="4" max="4" width="42.5" customWidth="1"/>
+    <col min="4" max="4" width="110.1640625" customWidth="1"/>
     <col min="5" max="5" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="8" customFormat="1" ht="13" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>0</v>
+        <v>903</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1</v>
+        <v>904</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>2</v>
+        <v>905</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>4</v>
+        <v>918</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>3</v>
@@ -13078,115 +13078,179 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
-        <v>356</v>
+        <v>919</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1</v>
+        <v>920</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>907</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>571</v>
+        <v>928</v>
       </c>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="6" t="s">
-        <v>356</v>
+        <v>919</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1</v>
+        <v>283</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>907</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="E3" s="6">
-        <v>15210262168</v>
-      </c>
+        <v>929</v>
+      </c>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
-        <v>356</v>
+        <v>919</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1</v>
+        <v>284</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>907</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>573</v>
+        <v>930</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="6" t="s">
-        <v>356</v>
+        <v>919</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>907</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>574</v>
+        <v>931</v>
       </c>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="6" t="s">
-        <v>356</v>
+        <v>919</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1</v>
+        <v>840</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>907</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>575</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>570</v>
-      </c>
+        <v>932</v>
+      </c>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
-        <v>356</v>
+        <v>919</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1</v>
+        <v>921</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>907</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>576</v>
+        <v>934</v>
       </c>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="6" t="s">
-        <v>356</v>
+        <v>919</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="6">
-        <v>1</v>
+        <v>89</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>907</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>577</v>
+        <v>866</v>
       </c>
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5">
+      <c r="A9" s="6" t="s">
+        <v>919</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>859</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>907</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>914</v>
+      </c>
       <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="6" t="s">
+        <v>919</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>907</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="6" t="s">
+        <v>919</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>907</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="6" t="s">
+        <v>919</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>908</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>907</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="6" t="s">
+        <v>919</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>909</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>907</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>923</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -13235,520 +13299,520 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>578</v>
+        <v>561</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>793</v>
+        <v>776</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>794</v>
+        <v>777</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>795</v>
+        <v>778</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>793</v>
+        <v>776</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>797</v>
+        <v>780</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>800</v>
+        <v>783</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>793</v>
+        <v>776</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>796</v>
+        <v>779</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>801</v>
+        <v>784</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>579</v>
+        <v>562</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>798</v>
+        <v>781</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>808</v>
+        <v>791</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>582</v>
+        <v>565</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>582</v>
+        <v>565</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>581</v>
+        <v>564</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>583</v>
+        <v>566</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>819</v>
+        <v>802</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>822</v>
+        <v>805</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>587</v>
+        <v>570</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>587</v>
+        <v>570</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>586</v>
+        <v>569</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>826</v>
+        <v>809</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>588</v>
+        <v>571</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>591</v>
+        <v>574</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>592</v>
+        <v>575</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>593</v>
+        <v>576</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>829</v>
+        <v>812</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>594</v>
+        <v>577</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>595</v>
+        <v>578</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>597</v>
+        <v>580</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>597</v>
+        <v>580</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>599</v>
+        <v>582</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>806</v>
+        <v>789</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>807</v>
+        <v>790</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>809</v>
+        <v>792</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>810</v>
+        <v>793</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>811</v>
+        <v>794</v>
       </c>
     </row>
   </sheetData>
@@ -13798,554 +13862,554 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>600</v>
+        <v>583</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>602</v>
+        <v>585</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>601</v>
+        <v>584</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>603</v>
+        <v>586</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>605</v>
+        <v>588</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>799</v>
+        <v>782</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>802</v>
+        <v>785</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E23" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>804</v>
+        <v>787</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>13</v>
@@ -14354,85 +14418,85 @@
         <v>1</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>805</v>
+        <v>788</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -14443,100 +14507,100 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -14586,44 +14650,44 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>812</v>
+        <v>795</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>813</v>
+        <v>796</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>816</v>
+        <v>799</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>812</v>
+        <v>795</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>814</v>
+        <v>797</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>817</v>
+        <v>800</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>812</v>
+        <v>795</v>
       </c>
       <c r="B4" t="s">
-        <v>815</v>
+        <v>798</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>818</v>
+        <v>801</v>
       </c>
     </row>
   </sheetData>
@@ -14672,562 +14736,562 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>830</v>
+        <v>813</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>820</v>
+        <v>803</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>821</v>
+        <v>804</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>195</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>604</v>
+        <v>587</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>823</v>
+        <v>806</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>824</v>
+        <v>807</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>825</v>
+        <v>808</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -15278,195 +15342,195 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>241</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>242</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>251</v>
-      </c>
       <c r="E4" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>827</v>
+        <v>810</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="E10" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>803</v>
+        <v>786</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>13</v>
@@ -15475,85 +15539,85 @@
         <v>1</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>828</v>
+        <v>811</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -15564,184 +15628,184 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
